--- a/ActiTIME/data/Test.xlsx
+++ b/ActiTIME/data/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS1000TX\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D995E36-9245-4652-8981-2F6FA39D3942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CF36E3-DCA3-4042-AFA5-C1B17D21BA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5988" yWindow="0" windowWidth="15600" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Customer Name</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Banking project</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>SBI_011</t>
   </si>
 </sst>
 </file>
@@ -370,32 +379,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
